--- a/podio.xlsx
+++ b/podio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,563 +434,461 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Sensibilizador</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sensibilizador</t>
+          <t>REGISTROS</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>REGISTROS</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>Domicilios_sensibilizados</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>ALONSO RAUL CHAPONAN ENCALADA</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>892</v>
+      </c>
       <c r="C2" t="n">
-        <v>892</v>
-      </c>
-      <c r="D2" t="n">
         <v>845</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>MARCO CHIUYARI</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>874</v>
+      </c>
       <c r="C3" t="n">
-        <v>874</v>
-      </c>
-      <c r="D3" t="n">
         <v>867</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>CARITO SOFIA HERNANDEZ ISUIZA</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>835</v>
+      </c>
       <c r="C4" t="n">
-        <v>835</v>
-      </c>
-      <c r="D4" t="n">
         <v>732</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>CLAUDIA MIRELLA SANCHEZ BALLESTEROS</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>686</v>
+      </c>
       <c r="C5" t="n">
-        <v>686</v>
-      </c>
-      <c r="D5" t="n">
         <v>614</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>SOFIA LORENA ASTO LOAYZA</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>683</v>
+      </c>
       <c r="C6" t="n">
-        <v>683</v>
-      </c>
-      <c r="D6" t="n">
         <v>667</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>MILENA LIZ BARRIENTOS CABEZAS</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>635</v>
+      </c>
       <c r="C7" t="n">
-        <v>635</v>
-      </c>
-      <c r="D7" t="n">
         <v>628</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>SADDAN ELIAS GARCIA HINOSTROZA</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>628</v>
+      </c>
       <c r="C8" t="n">
-        <v>628</v>
-      </c>
-      <c r="D8" t="n">
         <v>620</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>ENRIQUE MANUEL SANCHEZ GUERRERO</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>624</v>
+      </c>
       <c r="C9" t="n">
-        <v>624</v>
-      </c>
-      <c r="D9" t="n">
         <v>539</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>LUIS ALBERTO GARCÍA ORELLANA</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>613</v>
+      </c>
       <c r="C10" t="n">
-        <v>613</v>
-      </c>
-      <c r="D10" t="n">
         <v>602</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>VERIOSKA KRISTELL BUTRON MATTA</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>612</v>
+      </c>
       <c r="C11" t="n">
-        <v>612</v>
-      </c>
-      <c r="D11" t="n">
         <v>592</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>GERSON SALVADOR ORTIZ CABRERA</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>495</v>
+      </c>
       <c r="C12" t="n">
-        <v>495</v>
-      </c>
-      <c r="D12" t="n">
         <v>491</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>MARISOL SOLEDAD RONDON LAVADO</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>469</v>
+      </c>
       <c r="C13" t="n">
-        <v>469</v>
-      </c>
-      <c r="D13" t="n">
         <v>457</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>CLAUDIA PATRICIA ANGELES ESPINOZA</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>468</v>
+      </c>
       <c r="C14" t="n">
-        <v>468</v>
-      </c>
-      <c r="D14" t="n">
         <v>461</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>OTILIA LEONOR ARMAS CASANOVA</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>460</v>
+      </c>
       <c r="C15" t="n">
-        <v>460</v>
-      </c>
-      <c r="D15" t="n">
         <v>414</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>RENATO SEBASTIANI LEON MAZZA</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>455</v>
+      </c>
       <c r="C16" t="n">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ROCKY RODAS HORNA</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>455</v>
       </c>
-      <c r="D16" t="n">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ROCKY RODAS HORNA</t>
-        </is>
-      </c>
       <c r="C17" t="n">
-        <v>455</v>
-      </c>
-      <c r="D17" t="n">
         <v>397</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>YARISA MEDALI VILLEGAS GUTIÉRREZ</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>450</v>
+      </c>
       <c r="C18" t="n">
-        <v>450</v>
-      </c>
-      <c r="D18" t="n">
         <v>441</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>CAMILA MILAGROS GUTIERREZ CARLOS</t>
         </is>
+      </c>
+      <c r="B19" t="n">
+        <v>421</v>
       </c>
       <c r="C19" t="n">
         <v>421</v>
       </c>
-      <c r="D19" t="n">
-        <v>421</v>
-      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>NANCY NAIR FLORES CASTILLO</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>419</v>
+      </c>
       <c r="C20" t="n">
-        <v>419</v>
-      </c>
-      <c r="D20" t="n">
         <v>410</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="A21" t="inlineStr">
         <is>
           <t>PILAR JOSEFINA PUMA CHAMPI</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>413</v>
+      </c>
       <c r="C21" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CINTHIA PATRICIA CASTRO ESTRADA</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>413</v>
       </c>
-      <c r="D21" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CINTHIA PATRICIA CASTRO ESTRADA</t>
-        </is>
-      </c>
       <c r="C22" t="n">
-        <v>413</v>
-      </c>
-      <c r="D22" t="n">
         <v>409</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>KEVIN SUICA</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>369</v>
+      </c>
       <c r="C23" t="n">
-        <v>369</v>
-      </c>
-      <c r="D23" t="n">
         <v>306</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>INGRID MAZA PADILLA</t>
         </is>
+      </c>
+      <c r="B24" t="n">
+        <v>356</v>
       </c>
       <c r="C24" t="n">
         <v>356</v>
       </c>
-      <c r="D24" t="n">
-        <v>356</v>
-      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
+      <c r="A25" t="inlineStr">
         <is>
           <t>FRANCO MOMEDIANO</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>346</v>
+      </c>
       <c r="C25" t="n">
-        <v>346</v>
-      </c>
-      <c r="D25" t="n">
         <v>344</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
+      <c r="A26" t="inlineStr">
         <is>
           <t>GUILMAR JESUS ALEGRE CASTILLO</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>332</v>
+      </c>
       <c r="C26" t="n">
-        <v>332</v>
-      </c>
-      <c r="D26" t="n">
         <v>318</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>JAZMIN PALOMINO FLORES</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>330</v>
+      </c>
       <c r="C27" t="n">
-        <v>330</v>
-      </c>
-      <c r="D27" t="n">
         <v>325</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
+      <c r="A28" t="inlineStr">
         <is>
           <t>GEAN MANUEL MORALES MACEDO</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>328</v>
+      </c>
       <c r="C28" t="n">
-        <v>328</v>
-      </c>
-      <c r="D28" t="n">
         <v>325</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
+      <c r="A29" t="inlineStr">
         <is>
           <t>LUCILA STEFANY MOROCHO FERNÁNDEZ</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>236</v>
+      </c>
       <c r="C29" t="n">
-        <v>236</v>
-      </c>
-      <c r="D29" t="n">
         <v>234</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>CECILIA MENDOZA CATERIANO</t>
         </is>
+      </c>
+      <c r="B30" t="n">
+        <v>140</v>
       </c>
       <c r="C30" t="n">
         <v>140</v>
       </c>
-      <c r="D30" t="n">
-        <v>140</v>
-      </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
+      <c r="A31" t="inlineStr">
         <is>
           <t>ABNER BARZOLA GRANDEZ</t>
         </is>
       </c>
+      <c r="B31" t="n">
+        <v>91</v>
+      </c>
       <c r="C31" t="n">
-        <v>91</v>
-      </c>
-      <c r="D31" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="A32" t="inlineStr">
         <is>
           <t>MILAGROS BARZOLA GRANDEZ</t>
         </is>
       </c>
+      <c r="B32" t="n">
+        <v>80</v>
+      </c>
       <c r="C32" t="n">
-        <v>80</v>
-      </c>
-      <c r="D32" t="n">
         <v>78</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>KARLA ANTUANETTE ROSALES GONZALES</t>
         </is>
+      </c>
+      <c r="B33" t="n">
+        <v>9</v>
       </c>
       <c r="C33" t="n">
         <v>9</v>
       </c>
-      <c r="D33" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
+      <c r="A34" t="inlineStr">
         <is>
           <t>ULISES ALEXANDER RODAS CIENFUEGOS</t>
         </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
       </c>
       <c r="C34" t="n">
         <v>5</v>
       </c>
-      <c r="D34" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="A35" t="inlineStr">
         <is>
           <t>MARIA DE FATIMA ESTRADA RAMOS</t>
         </is>
       </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
       <c r="C35" t="n">
-        <v>1</v>
-      </c>
-      <c r="D35" t="n">
         <v>1</v>
       </c>
     </row>

--- a/podio.xlsx
+++ b/podio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,430 +466,170 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MARCO CHIUYARI</t>
+          <t>CARITO SOFIA HERNANDEZ ISUIZA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>874</v>
+        <v>835</v>
       </c>
       <c r="C3" t="n">
-        <v>867</v>
+        <v>732</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CARITO SOFIA HERNANDEZ ISUIZA</t>
+          <t>CLAUDIA MIRELLA SANCHEZ BALLESTEROS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>835</v>
+        <v>686</v>
       </c>
       <c r="C4" t="n">
-        <v>732</v>
+        <v>614</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CLAUDIA MIRELLA SANCHEZ BALLESTEROS</t>
+          <t>SOFIA LORENA ASTO LOAYZA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C5" t="n">
-        <v>614</v>
+        <v>666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOFIA LORENA ASTO LOAYZA</t>
+          <t>MILENA LIZ BARRIENTOS CABEZAS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>683</v>
+        <v>635</v>
       </c>
       <c r="C6" t="n">
-        <v>667</v>
+        <v>628</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MILENA LIZ BARRIENTOS CABEZAS</t>
+          <t>SADDAN ELIAS GARCIA HINOSTROZA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="C7" t="n">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SADDAN ELIAS GARCIA HINOSTROZA</t>
+          <t>ENRIQUE MANUEL SANCHEZ GUERRERO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="C8" t="n">
-        <v>620</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ENRIQUE MANUEL SANCHEZ GUERRERO</t>
+          <t>LUIS ALBERTO GARCÍA ORELLANA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="C9" t="n">
-        <v>539</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>LUIS ALBERTO GARCÍA ORELLANA</t>
+          <t>VERIOSKA KRISTELL BUTRON MATTA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C10" t="n">
-        <v>602</v>
+        <v>592</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VERIOSKA KRISTELL BUTRON MATTA</t>
+          <t>GERSON SALVADOR ORTIZ CABRERA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>612</v>
+        <v>495</v>
       </c>
       <c r="C11" t="n">
-        <v>592</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GERSON SALVADOR ORTIZ CABRERA</t>
+          <t>PILAR JOSEFINA PUMA CHAMPI</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>495</v>
+        <v>413</v>
       </c>
       <c r="C12" t="n">
-        <v>491</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MARISOL SOLEDAD RONDON LAVADO</t>
+          <t>GUILMAR JESUS ALEGRE CASTILLO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>469</v>
+        <v>332</v>
       </c>
       <c r="C13" t="n">
-        <v>457</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CLAUDIA PATRICIA ANGELES ESPINOZA</t>
+          <t>KARLA ANTUANETTE ROSALES GONZALES</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>468</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>461</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>OTILIA LEONOR ARMAS CASANOVA</t>
+          <t>ULISES ALEXANDER RODAS CIENFUEGOS</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>460</v>
+        <v>5</v>
       </c>
       <c r="C15" t="n">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>RENATO SEBASTIANI LEON MAZZA</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>455</v>
-      </c>
-      <c r="C16" t="n">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ROCKY RODAS HORNA</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>455</v>
-      </c>
-      <c r="C17" t="n">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>YARISA MEDALI VILLEGAS GUTIÉRREZ</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>450</v>
-      </c>
-      <c r="C18" t="n">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>CAMILA MILAGROS GUTIERREZ CARLOS</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>421</v>
-      </c>
-      <c r="C19" t="n">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>NANCY NAIR FLORES CASTILLO</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>419</v>
-      </c>
-      <c r="C20" t="n">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>PILAR JOSEFINA PUMA CHAMPI</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>413</v>
-      </c>
-      <c r="C21" t="n">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>CINTHIA PATRICIA CASTRO ESTRADA</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>413</v>
-      </c>
-      <c r="C22" t="n">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>KEVIN SUICA</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>369</v>
-      </c>
-      <c r="C23" t="n">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>INGRID MAZA PADILLA</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>356</v>
-      </c>
-      <c r="C24" t="n">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>FRANCO MOMEDIANO</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>346</v>
-      </c>
-      <c r="C25" t="n">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>GUILMAR JESUS ALEGRE CASTILLO</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>332</v>
-      </c>
-      <c r="C26" t="n">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>JAZMIN PALOMINO FLORES</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>330</v>
-      </c>
-      <c r="C27" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>GEAN MANUEL MORALES MACEDO</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>328</v>
-      </c>
-      <c r="C28" t="n">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>LUCILA STEFANY MOROCHO FERNÁNDEZ</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>236</v>
-      </c>
-      <c r="C29" t="n">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>CECILIA MENDOZA CATERIANO</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>140</v>
-      </c>
-      <c r="C30" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>ABNER BARZOLA GRANDEZ</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>91</v>
-      </c>
-      <c r="C31" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>MILAGROS BARZOLA GRANDEZ</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>80</v>
-      </c>
-      <c r="C32" t="n">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>KARLA ANTUANETTE ROSALES GONZALES</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>9</v>
-      </c>
-      <c r="C33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>ULISES ALEXANDER RODAS CIENFUEGOS</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
         <v>5</v>
-      </c>
-      <c r="C34" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>MARIA DE FATIMA ESTRADA RAMOS</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/podio.xlsx
+++ b/podio.xlsx
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>686</v>
+        <v>792</v>
       </c>
       <c r="C4" t="n">
-        <v>614</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5">
